--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\uipath_06\My Documents\UiPath\LUX - 01 - Load Vendor Open Item\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD565AD-6015-4356-BF87-58A0AAC2A9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C572FA-6A33-4337-8AB3-2B65667E5323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -216,34 +216,19 @@
     <t>Ess.Lux01VendorOpenItems.LUPConnection</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\uipath_06\My Documents\UiPath\Components\</t>
-  </si>
-  <si>
     <t>strComponentRootOld</t>
   </si>
   <si>
-    <t>strSubprocessRoot</t>
-  </si>
-  <si>
-    <t>strProcessRoot</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\uipath_06\My Documents\UiPath\LUX - 01 - Load Vendor Open Item\Subprocesses\</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\uipath_06\My Documents\UiPath\LUX - 01 - Load Vendor Open Item\Processes\</t>
-  </si>
-  <si>
     <t>strLoadVendorOpenItemQueue</t>
   </si>
   <si>
-    <t>LUX-01_LoadVendorOpenItems</t>
-  </si>
-  <si>
     <t>strReportsDetailFilePathOld</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\uipath_06\My Documents\UiPath\LUX - 01 - Load Vendor Open Item\Data</t>
+    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data</t>
+  </si>
+  <si>
+    <t>LUX-01_LoadVendorOpenItems_New</t>
   </si>
 </sst>
 </file>
@@ -612,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,7 +656,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
@@ -686,7 +678,7 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -702,7 +694,7 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -737,41 +729,20 @@
         <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1745,17 +1716,12 @@
     <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{45090ABC-13B2-4FD9-9FD6-7C2739011266}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{8193B312-DD25-4CD0-9CA1-B93CE5E4B37D}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{CCFC96D4-E1D1-467D-9A00-6DF5F4F42F5A}"/>
+    <hyperlink ref="B13" r:id="rId1" display="\\LRRBTUIPFSP100\Profiles\uipath_26\My Documents\UiPath\LUX - 01 - Load Vendor Open Item\Data" xr:uid="{701E74B0-4969-46F2-BC78-616CDD149931}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Load Vendor Open Item/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C572FA-6A33-4337-8AB3-2B65667E5323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC999841-2790-419F-9407-E3FEF553B660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -174,9 +174,6 @@
     <t>strComponentRoot</t>
   </si>
   <si>
-    <t>C:\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
     <t>LUX-01_VendorOpenItemsReport_SAP_Report</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>ReportsDetail.xlsx</t>
   </si>
   <si>
-    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data</t>
-  </si>
-  <si>
     <t>strReportsDetailFilePath</t>
   </si>
   <si>
@@ -216,19 +210,16 @@
     <t>Ess.Lux01VendorOpenItems.LUPConnection</t>
   </si>
   <si>
-    <t>strComponentRootOld</t>
-  </si>
-  <si>
     <t>strLoadVendorOpenItemQueue</t>
   </si>
   <si>
-    <t>strReportsDetailFilePathOld</t>
-  </si>
-  <si>
-    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data</t>
-  </si>
-  <si>
-    <t>LUX-01_LoadVendorOpenItems_New</t>
+    <t>LUX-01_LoadVendorOpenItems</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Load Vendor Open Item\Data</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
   </si>
 </sst>
 </file>
@@ -597,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z989"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,10 +638,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -658,10 +649,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,23 +669,23 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -702,44 +693,30 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="b">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1714,11 +1691,9 @@
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="\\LRRBTUIPFSP100\Profiles\uipath_26\My Documents\UiPath\LUX - 01 - Load Vendor Open Item\Data" xr:uid="{701E74B0-4969-46F2-BC78-616CDD149931}"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{EA2B9479-6189-45F0-B827-511F328F4F07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2997,10 +2972,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
